--- a/biology/Zoologie/Bothrops_jararaca/Bothrops_jararaca.xlsx
+++ b/biology/Zoologie/Bothrops_jararaca/Bothrops_jararaca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bothrops jararaca est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bothrops jararaca est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 au Brésil dans le Sud de Bahia, en Espírito Santo, au Minas Gerais, dans l'Est du Mato Grosso, dans l'État de Rio de Janeiro, dans l'État de São Paulo, au Paraná, au Santa Catarina et au Rio Grande do Sul ;
 dans l'Est du Paraguay ;
 en Argentine dans la province de Misiones.
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux.
 Son venin a permis de développer les inhibiteurs de l'enzyme de conversion, médicament utilisé dans l'hypertension artérielle ou l'insuffisance cardiaque.
 </t>
         </is>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wied-Neuwied, 1824 : Abbildungen zur Naturgeschichte Brasiliens. Isis von Oken, vol. 14, p. 1103 (texte intégral).</t>
         </is>
